--- a/spec/test_data/plan_data/rating_areas/2019/SHOP_ZipCode_CY2019_FINAL.xlsx
+++ b/spec/test_data/plan_data/rating_areas/2019/SHOP_ZipCode_CY2019_FINAL.xlsx
@@ -203,9 +203,6 @@
     <t>02703</t>
   </si>
   <si>
-    <t>yep</t>
-  </si>
-  <si>
     <t>R-MA001</t>
   </si>
   <si>
@@ -225,6 +222,9 @@
   </si>
   <si>
     <t>R-MA007</t>
+  </si>
+  <si>
+    <t>Zip</t>
   </si>
 </sst>
 </file>
@@ -3641,7 +3641,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3654,7 +3654,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3677,7 +3677,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3691,7 +3691,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3705,7 +3705,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3719,7 +3719,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -3733,7 +3733,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -3747,7 +3747,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3761,7 +3761,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3775,7 +3775,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3789,7 +3789,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3803,7 +3803,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3817,7 +3817,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -3831,7 +3831,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -3845,7 +3845,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -3859,7 +3859,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -3873,7 +3873,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -3887,7 +3887,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -3901,7 +3901,7 @@
         <v>5</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -3915,7 +3915,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -3929,7 +3929,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -3943,7 +3943,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -3957,7 +3957,7 @@
         <v>5</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -3971,7 +3971,7 @@
         <v>5</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -3985,7 +3985,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -3999,7 +3999,7 @@
         <v>5</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -4013,7 +4013,7 @@
         <v>5</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -4027,7 +4027,7 @@
         <v>5</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -4041,7 +4041,7 @@
         <v>5</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -4055,7 +4055,7 @@
         <v>5</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -4069,7 +4069,7 @@
         <v>5</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -4083,7 +4083,7 @@
         <v>5</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -4097,7 +4097,7 @@
         <v>5</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -4111,7 +4111,7 @@
         <v>5</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -4125,7 +4125,7 @@
         <v>5</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -4139,7 +4139,7 @@
         <v>8</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -4153,7 +4153,7 @@
         <v>8</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -4167,7 +4167,7 @@
         <v>5</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -4181,7 +4181,7 @@
         <v>5</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -4195,7 +4195,7 @@
         <v>5</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -4209,7 +4209,7 @@
         <v>5</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -4223,7 +4223,7 @@
         <v>5</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
